--- a/data/emp_export.xlsx
+++ b/data/emp_export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Emp_Id</t>
   </si>
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
@@ -592,6 +592,52 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>9578821821</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>40310</v>
+      </c>
+      <c r="H8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>9578821821</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>40310</v>
+      </c>
+      <c r="H9">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data/emp_export.xlsx
+++ b/data/emp_export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
   <si>
     <t>Emp_Id</t>
   </si>
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
@@ -638,6 +638,236 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>9578821821</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>40310</v>
+      </c>
+      <c r="H10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>9578821821</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>40310</v>
+      </c>
+      <c r="H11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>9578821821</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>40310</v>
+      </c>
+      <c r="H12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>9578821821</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>40310</v>
+      </c>
+      <c r="H13">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>9578821821</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>40310</v>
+      </c>
+      <c r="H14">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>9578821821</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>40310</v>
+      </c>
+      <c r="H15">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>9578821821</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>40310</v>
+      </c>
+      <c r="H16">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>9578821821</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>40310</v>
+      </c>
+      <c r="H17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>9578821821</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>40310</v>
+      </c>
+      <c r="H18">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>9578821821</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>40310</v>
+      </c>
+      <c r="H19">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data/emp_export.xlsx
+++ b/data/emp_export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>Emp_Id</t>
   </si>
@@ -37,10 +37,58 @@
     <t>Salary</t>
   </si>
   <si>
-    <t>David</t>
+    <t>David1</t>
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>David2</t>
+  </si>
+  <si>
+    <t>David3</t>
+  </si>
+  <si>
+    <t>David4</t>
+  </si>
+  <si>
+    <t>David5</t>
+  </si>
+  <si>
+    <t>David6</t>
+  </si>
+  <si>
+    <t>David7</t>
+  </si>
+  <si>
+    <t>David8</t>
+  </si>
+  <si>
+    <t>David9</t>
+  </si>
+  <si>
+    <t>David10</t>
+  </si>
+  <si>
+    <t>David11</t>
+  </si>
+  <si>
+    <t>David12</t>
+  </si>
+  <si>
+    <t>David13</t>
+  </si>
+  <si>
+    <t>David14</t>
+  </si>
+  <si>
+    <t>David15</t>
+  </si>
+  <si>
+    <t>David16</t>
+  </si>
+  <si>
+    <t>David17</t>
   </si>
 </sst>
 </file>
@@ -418,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H35"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
@@ -482,7 +530,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>9578821821</v>
@@ -494,10 +542,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="1">
-        <v>40310</v>
+        <v>40311</v>
       </c>
       <c r="H3">
-        <v>50000</v>
+        <v>50001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -505,7 +553,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>9578821821</v>
@@ -517,10 +565,10 @@
         <v>9</v>
       </c>
       <c r="G4" s="1">
-        <v>40310</v>
+        <v>40312</v>
       </c>
       <c r="H4">
-        <v>50000</v>
+        <v>50002</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -528,7 +576,7 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>9578821821</v>
@@ -540,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="G5" s="1">
-        <v>40310</v>
+        <v>40313</v>
       </c>
       <c r="H5">
-        <v>50000</v>
+        <v>50003</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -551,7 +599,7 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>9578821821</v>
@@ -563,10 +611,10 @@
         <v>9</v>
       </c>
       <c r="G6" s="1">
-        <v>40310</v>
+        <v>40314</v>
       </c>
       <c r="H6">
-        <v>50000</v>
+        <v>50004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -574,7 +622,7 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>9578821821</v>
@@ -586,10 +634,10 @@
         <v>9</v>
       </c>
       <c r="G7" s="1">
-        <v>40310</v>
+        <v>40315</v>
       </c>
       <c r="H7">
-        <v>50000</v>
+        <v>50005</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -597,7 +645,7 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>9578821821</v>
@@ -609,10 +657,10 @@
         <v>9</v>
       </c>
       <c r="G8" s="1">
-        <v>40310</v>
+        <v>40316</v>
       </c>
       <c r="H8">
-        <v>50000</v>
+        <v>50006</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -620,7 +668,7 @@
         <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>9578821821</v>
@@ -632,10 +680,10 @@
         <v>9</v>
       </c>
       <c r="G9" s="1">
-        <v>40310</v>
+        <v>40317</v>
       </c>
       <c r="H9">
-        <v>50000</v>
+        <v>50007</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,7 +691,7 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>9578821821</v>
@@ -655,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="G10" s="1">
-        <v>40310</v>
+        <v>40318</v>
       </c>
       <c r="H10">
-        <v>50000</v>
+        <v>50008</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,7 +714,7 @@
         <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>9578821821</v>
@@ -678,10 +726,10 @@
         <v>9</v>
       </c>
       <c r="G11" s="1">
-        <v>40310</v>
+        <v>40319</v>
       </c>
       <c r="H11">
-        <v>50000</v>
+        <v>50009</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,7 +737,7 @@
         <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>9578821821</v>
@@ -701,10 +749,10 @@
         <v>9</v>
       </c>
       <c r="G12" s="1">
-        <v>40310</v>
+        <v>40320</v>
       </c>
       <c r="H12">
-        <v>50000</v>
+        <v>50010</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -712,7 +760,7 @@
         <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>9578821821</v>
@@ -724,10 +772,10 @@
         <v>9</v>
       </c>
       <c r="G13" s="1">
-        <v>40310</v>
+        <v>40321</v>
       </c>
       <c r="H13">
-        <v>50000</v>
+        <v>50011</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -735,7 +783,7 @@
         <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>9578821821</v>
@@ -747,10 +795,10 @@
         <v>9</v>
       </c>
       <c r="G14" s="1">
-        <v>40310</v>
+        <v>40322</v>
       </c>
       <c r="H14">
-        <v>50000</v>
+        <v>50012</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -758,7 +806,7 @@
         <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>9578821821</v>
@@ -770,10 +818,10 @@
         <v>9</v>
       </c>
       <c r="G15" s="1">
-        <v>40310</v>
+        <v>40323</v>
       </c>
       <c r="H15">
-        <v>50000</v>
+        <v>50013</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -781,7 +829,7 @@
         <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>9578821821</v>
@@ -793,10 +841,10 @@
         <v>9</v>
       </c>
       <c r="G16" s="1">
-        <v>40310</v>
+        <v>40324</v>
       </c>
       <c r="H16">
-        <v>50000</v>
+        <v>50014</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -804,7 +852,7 @@
         <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>9578821821</v>
@@ -816,10 +864,10 @@
         <v>9</v>
       </c>
       <c r="G17" s="1">
-        <v>40310</v>
+        <v>40325</v>
       </c>
       <c r="H17">
-        <v>50000</v>
+        <v>50015</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -827,7 +875,7 @@
         <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>9578821821</v>
@@ -839,10 +887,10 @@
         <v>9</v>
       </c>
       <c r="G18" s="1">
-        <v>40310</v>
+        <v>40326</v>
       </c>
       <c r="H18">
-        <v>50000</v>
+        <v>50016</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -866,6 +914,374 @@
       </c>
       <c r="H19">
         <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>9578821821</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1">
+        <v>40311</v>
+      </c>
+      <c r="H20">
+        <v>50001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>9578821821</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>40312</v>
+      </c>
+      <c r="H21">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>9578821821</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1">
+        <v>40313</v>
+      </c>
+      <c r="H22">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>9578821821</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>40314</v>
+      </c>
+      <c r="H23">
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>9578821821</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1">
+        <v>40315</v>
+      </c>
+      <c r="H24">
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>9578821821</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>40316</v>
+      </c>
+      <c r="H25">
+        <v>50006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>9578821821</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1">
+        <v>40317</v>
+      </c>
+      <c r="H26">
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>9578821821</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>40318</v>
+      </c>
+      <c r="H27">
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>9578821821</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1">
+        <v>40319</v>
+      </c>
+      <c r="H28">
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>9578821821</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>40320</v>
+      </c>
+      <c r="H29">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>9578821821</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1">
+        <v>40321</v>
+      </c>
+      <c r="H30">
+        <v>50011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>9578821821</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>40322</v>
+      </c>
+      <c r="H31">
+        <v>50012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>9578821821</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1">
+        <v>40323</v>
+      </c>
+      <c r="H32">
+        <v>50013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>9578821821</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1">
+        <v>40324</v>
+      </c>
+      <c r="H33">
+        <v>50014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>9578821821</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1">
+        <v>40325</v>
+      </c>
+      <c r="H34">
+        <v>50015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>9578821821</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1">
+        <v>40326</v>
+      </c>
+      <c r="H35">
+        <v>50016</v>
       </c>
     </row>
   </sheetData>
